--- a/biology/Botanique/Fagus_hayatae/Fagus_hayatae.xlsx
+++ b/biology/Botanique/Fagus_hayatae/Fagus_hayatae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fagus hayatae, également connu sous le nom de hêtre de Taiwan, est une espèce de hêtre de la famille des Fagaceae.
-Il peut atteindre 20 m de hauteur[2].C'est la seule espèce de hêtre originaire de Taiwan[3].
-L'UICN le signale , comme endémique à Taiwan dans "Flore de Chine"[2] et "Flora of Taiwan"[3] le signale également depuis la Chine ; "Flore de Chine" rapporte une répartition large mais discontinue sur le continent entre le Sichuan au sud-ouest et le Zhejiang à l'est. Il est actuellement classé « vulnérable »[4].
+Il peut atteindre 20 m de hauteur.C'est la seule espèce de hêtre originaire de Taiwan.
+L'UICN le signale , comme endémique à Taiwan dans "Flore de Chine" et "Flora of Taiwan" le signale également depuis la Chine ; "Flore de Chine" rapporte une répartition large mais discontinue sur le continent entre le Sichuan au sud-ouest et le Zhejiang à l'est. Il est actuellement classé « vulnérable ».
 </t>
         </is>
       </c>
@@ -513,11 +525,47 @@
           <t>Informations sur le taxon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>basionyme Fagus pashanica C.C.Yang (1978)
-Sous espèces
-Fagus hayatae subsp. pashanica (C.C.Yang) (1998)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>basionyme Fagus pashanica C.C.Yang (1978)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fagus_hayatae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fagus_hayatae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Informations sur le taxon</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fagus hayatae subsp. pashanica (C.C.Yang) (1998)
 Fagus hayatae var. zhejiangensis M.C.Liu &amp; M.H.Wu ex Y.T.Chang &amp; C.C.Huang (1988)
 Fagus hayatae subsp. pashanica (C.C.Yang) R.Peter (1992)</t>
         </is>
